--- a/biology/Botanique/Cucurbitoideae/Cucurbitoideae.xlsx
+++ b/biology/Botanique/Cucurbitoideae/Cucurbitoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cucurbitoideae sont une sous-famille de plantes à fleurs de la famille des Cucurbitaceae.
-Les Cucurbitaceae sont subdivisées en deux sous-familles, celle des Cucurbitoideae, groupe monophylétique bien établi, le plus important, et celle des Zanonioideae, qui regroupe les espèces restantes et qui est probablement un groupe paraphylétique[1].
+Les Cucurbitaceae sont subdivisées en deux sous-familles, celle des Cucurbitoideae, groupe monophylétique bien établi, le plus important, et celle des Zanonioideae, qui regroupe les espèces restantes et qui est probablement un groupe paraphylétique.
 La sous-famille des Cucurbitoideae est elle-même subdivisée en sept tribus.
-Les espèces rattachées à ces différentes tribus comprennent notamment des plantes cultivées, produisant des fruitsde grande importance économique, tels que les courges et citrouilles, melons et pastèques, concombres, gourdes et luffas[2].
+Les espèces rattachées à ces différentes tribus comprennent notamment des plantes cultivées, produisant des fruitsde grande importance économique, tels que les courges et citrouilles, melons et pastèques, concombres, gourdes et luffas.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Tribus et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tribu : Melothrieae
 Sous-tribu : Dendrosicyinae
@@ -522,7 +536,7 @@
 Sous-tribu : Guraniinae
 Genres : Helmontia - Psiguria - Gurania
 Sous-tribu : Cucumerinae
-Genres : Melancium - Cucumeropsis - Posadaea - Melothria - Muellerargia Zehneria - Cucumis (incluant :  Mukia, Dicaelospermum, Cucumella, Oreosyce et Myrmecosicyos[3]).
+Genres : Melancium - Cucumeropsis - Posadaea - Melothria - Muellerargia Zehneria - Cucumis (incluant :  Mukia, Dicaelospermum, Cucumella, Oreosyce et Myrmecosicyos).
 Sous-tribu : Trochomeriinae
 Genres : Solena - Trochomeria - Dactyliandra - Ctenolepsis
 Tribu : Schizopeponeae
